--- a/medicine/Psychotrope/Sonoma_Valley/Sonoma_Valley.xlsx
+++ b/medicine/Psychotrope/Sonoma_Valley/Sonoma_Valley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sonoma Valley (vallée de Sonoma) est une région viticole américaine (American Viticultural Area, ou AVA) reconnue par l’Alcohol and Tobacco Tax and Trade Bureau dans le comté de Sonoma, en Californie.
